--- a/filename.xlsx
+++ b/filename.xlsx
@@ -24,12 +24,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>General Physics</t>
-  </si>
-  <si>
-    <t>Classical Mechanics</t>
-  </si>
-  <si>
     <t>Calculus</t>
   </si>
   <si>
@@ -67,6 +61,14 @@
   </si>
   <si>
     <t>S10</t>
+  </si>
+  <si>
+    <t>General_Physics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classical_Mechanics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -987,7 +989,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -997,24 +999,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -1034,7 +1036,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>41</v>
@@ -1054,7 +1056,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>91</v>
@@ -1074,7 +1076,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>52</v>
@@ -1094,7 +1096,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>67</v>
@@ -1114,7 +1116,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -1134,7 +1136,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>91</v>
@@ -1154,7 +1156,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>70</v>
@@ -1174,7 +1176,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>99</v>
@@ -1194,7 +1196,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>70</v>
